--- a/financial_projection_and_sensitivity/Sensitivity_Analysis_Hazira.xlsx
+++ b/financial_projection_and_sensitivity/Sensitivity_Analysis_Hazira.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucymalmud/Desktop/hazira-port/financial_projection_and_sensitivity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C4E696-DA70-6647-A4B8-4DCBF33390B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD62935-33CE-A341-B26D-1DBE9D30A24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24580" yWindow="1620" windowWidth="19420" windowHeight="15620" activeTab="2" xr2:uid="{2C1AB67C-BDFB-D54B-88A0-F01AAC1319C6}"/>
+    <workbookView xWindow="-24580" yWindow="1620" windowWidth="19420" windowHeight="15620" xr2:uid="{2C1AB67C-BDFB-D54B-88A0-F01AAC1319C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity_Conservative" sheetId="1" r:id="rId1"/>
@@ -243,10 +243,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-32753215.815289542</c:v>
+                  <c:v>-32753215.815289512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32753215.815289497</c:v>
+                  <c:v>32753215.815289557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,10 +302,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-8188303.9538224041</c:v>
+                  <c:v>-8188303.9538223743</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8188303.9538223743</c:v>
+                  <c:v>8188303.9538224339</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,10 +670,10 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-31002895.157908961</c:v>
+                  <c:v>-31002895.157908991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31002895.157908976</c:v>
+                  <c:v>31002895.157908946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +729,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-7750723.7894772291</c:v>
+                  <c:v>-7750723.7894772589</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7750723.7894772291</c:v>
@@ -1097,7 +1097,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-28071422.735692397</c:v>
+                  <c:v>-28071422.735692382</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28071422.735692441</c:v>
@@ -3190,16 +3190,16 @@
             <v>1.2</v>
           </cell>
           <cell r="J35">
-            <v>131012157.16464309</v>
+            <v>130947522.50082491</v>
           </cell>
           <cell r="K35">
-            <v>196518588.79522213</v>
+            <v>196453954.13140398</v>
           </cell>
           <cell r="L35">
-            <v>17024.966652897419</v>
+            <v>170.16776967897678</v>
           </cell>
           <cell r="M35">
-            <v>25537.494554382007</v>
+            <v>255.29305080169797</v>
           </cell>
         </row>
         <row r="36">
@@ -3207,10 +3207,10 @@
             <v>unit_rate_scalar</v>
           </cell>
           <cell r="B36">
-            <v>-32753215.815289542</v>
+            <v>-32753215.815289512</v>
           </cell>
           <cell r="C36">
-            <v>32753215.815289497</v>
+            <v>32753215.815289557</v>
           </cell>
           <cell r="G36" t="str">
             <v>improvement ad pp</v>
@@ -3222,16 +3222,16 @@
             <v>0.05</v>
           </cell>
           <cell r="J36">
-            <v>155577069.02611023</v>
+            <v>155512434.36229205</v>
           </cell>
           <cell r="K36">
-            <v>171953676.93375501</v>
+            <v>171889042.26993686</v>
           </cell>
           <cell r="L36">
-            <v>20217.164615956342</v>
+            <v>202.08975030833585</v>
           </cell>
           <cell r="M36">
-            <v>22345.296591362476</v>
+            <v>223.37107056914149</v>
           </cell>
         </row>
         <row r="37">
@@ -3239,10 +3239,10 @@
             <v>improvement_adj</v>
           </cell>
           <cell r="B37">
-            <v>-8188303.9538224041</v>
+            <v>-8188303.9538223743</v>
           </cell>
           <cell r="C37">
-            <v>8188303.9538223743</v>
+            <v>8188303.9538224339</v>
           </cell>
         </row>
       </sheetData>
@@ -3287,16 +3287,16 @@
             <v>1.2</v>
           </cell>
           <cell r="J35">
-            <v>124010874.53512077</v>
+            <v>123946239.87130259</v>
           </cell>
           <cell r="K35">
-            <v>186016664.85093871</v>
+            <v>185952030.18712053</v>
           </cell>
           <cell r="L35">
-            <v>16115.153490336432</v>
+            <v>161.06963769606668</v>
           </cell>
           <cell r="M35">
-            <v>24172.774810539202</v>
+            <v>241.64585312537878</v>
           </cell>
         </row>
         <row r="36">
@@ -3304,10 +3304,10 @@
             <v>unit_rate_scalar</v>
           </cell>
           <cell r="B36">
-            <v>-31002895.157908961</v>
+            <v>-31002895.157908991</v>
           </cell>
           <cell r="C36">
-            <v>31002895.157908976</v>
+            <v>31002895.157908946</v>
           </cell>
           <cell r="G36" t="str">
             <v>improvement ad pp</v>
@@ -3319,16 +3319,16 @@
             <v>0.05</v>
           </cell>
           <cell r="J36">
-            <v>147263045.9035525</v>
+            <v>147198411.23973432</v>
           </cell>
           <cell r="K36">
-            <v>162764493.48250696</v>
+            <v>162699858.81868881</v>
           </cell>
           <cell r="L36">
-            <v>19136.761485405248</v>
+            <v>191.28571870223519</v>
           </cell>
           <cell r="M36">
-            <v>21151.166815489818</v>
+            <v>211.42977253855324</v>
           </cell>
         </row>
         <row r="37">
@@ -3336,7 +3336,7 @@
             <v>improvement_adj</v>
           </cell>
           <cell r="B37">
-            <v>-7750723.7894772291</v>
+            <v>-7750723.7894772589</v>
           </cell>
           <cell r="C37">
             <v>7750723.7894772291</v>
@@ -3384,16 +3384,16 @@
             <v>1.2</v>
           </cell>
           <cell r="J35">
-            <v>112284984.84625451</v>
+            <v>112220350.18243635</v>
           </cell>
           <cell r="K35">
-            <v>168427830.31763935</v>
+            <v>168363195.65382117</v>
           </cell>
           <cell r="L35">
-            <v>14591.380012486705</v>
+            <v>145.83190221927211</v>
           </cell>
           <cell r="M35">
-            <v>21887.114593789356</v>
+            <v>218.78925049293005</v>
           </cell>
         </row>
         <row r="36">
@@ -3401,7 +3401,7 @@
             <v>unit_rate_scalar</v>
           </cell>
           <cell r="B36">
-            <v>-28071422.735692397</v>
+            <v>-28071422.735692382</v>
           </cell>
           <cell r="C36">
             <v>28071422.735692441</v>
@@ -3416,16 +3416,16 @@
             <v>0.05</v>
           </cell>
           <cell r="J36">
-            <v>133338551.8980238</v>
+            <v>133273917.23420562</v>
           </cell>
           <cell r="K36">
-            <v>147374263.26587003</v>
+            <v>147309628.60205185</v>
           </cell>
           <cell r="L36">
-            <v>17327.280480486115</v>
+            <v>173.19090806523556</v>
           </cell>
           <cell r="M36">
-            <v>19151.21412582108</v>
+            <v>191.43024511041978</v>
           </cell>
         </row>
         <row r="37">
@@ -3764,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04AE875-62CC-884A-A300-EE464E8B8E84}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3847,19 +3847,19 @@
       </c>
       <c r="D23">
         <f>[1]CF_Conservative!J35</f>
-        <v>131012157.16464309</v>
+        <v>130947522.50082491</v>
       </c>
       <c r="E23">
         <f>[1]CF_Conservative!K35</f>
-        <v>196518588.79522213</v>
+        <v>196453954.13140398</v>
       </c>
       <c r="F23">
         <f>[1]CF_Conservative!L35</f>
-        <v>17024.966652897419</v>
+        <v>170.16776967897678</v>
       </c>
       <c r="G23">
         <f>[1]CF_Conservative!M35</f>
-        <v>25537.494554382007</v>
+        <v>255.29305080169797</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3877,19 +3877,19 @@
       </c>
       <c r="D24">
         <f>[1]CF_Conservative!J36</f>
-        <v>155577069.02611023</v>
+        <v>155512434.36229205</v>
       </c>
       <c r="E24">
         <f>[1]CF_Conservative!K36</f>
-        <v>171953676.93375501</v>
+        <v>171889042.26993686</v>
       </c>
       <c r="F24">
         <f>[1]CF_Conservative!L36</f>
-        <v>20217.164615956342</v>
+        <v>202.08975030833585</v>
       </c>
       <c r="G24">
         <f>[1]CF_Conservative!M36</f>
-        <v>22345.296591362476</v>
+        <v>223.37107056914149</v>
       </c>
     </row>
   </sheetData>
@@ -3953,19 +3953,19 @@
       </c>
       <c r="D23">
         <f>[1]CF_Moderate!J35</f>
-        <v>124010874.53512077</v>
+        <v>123946239.87130259</v>
       </c>
       <c r="E23">
         <f>[1]CF_Moderate!K35</f>
-        <v>186016664.85093871</v>
+        <v>185952030.18712053</v>
       </c>
       <c r="F23">
         <f>[1]CF_Moderate!L35</f>
-        <v>16115.153490336432</v>
+        <v>161.06963769606668</v>
       </c>
       <c r="G23">
         <f>[1]CF_Moderate!M35</f>
-        <v>24172.774810539202</v>
+        <v>241.64585312537878</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3983,19 +3983,19 @@
       </c>
       <c r="D24">
         <f>[1]CF_Moderate!J36</f>
-        <v>147263045.9035525</v>
+        <v>147198411.23973432</v>
       </c>
       <c r="E24">
         <f>[1]CF_Moderate!K36</f>
-        <v>162764493.48250696</v>
+        <v>162699858.81868881</v>
       </c>
       <c r="F24">
         <f>[1]CF_Moderate!L36</f>
-        <v>19136.761485405248</v>
+        <v>191.28571870223519</v>
       </c>
       <c r="G24">
         <f>[1]CF_Moderate!M36</f>
-        <v>21151.166815489818</v>
+        <v>211.42977253855324</v>
       </c>
     </row>
   </sheetData>
@@ -4008,7 +4008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E95AEB4-189F-E948-B16B-E78B0FEC545D}">
   <dimension ref="A22:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -4059,19 +4059,19 @@
       </c>
       <c r="D23">
         <f>[1]CF_Aggressive!J35</f>
-        <v>112284984.84625451</v>
+        <v>112220350.18243635</v>
       </c>
       <c r="E23">
         <f>[1]CF_Aggressive!K35</f>
-        <v>168427830.31763935</v>
+        <v>168363195.65382117</v>
       </c>
       <c r="F23">
         <f>[1]CF_Aggressive!L35</f>
-        <v>14591.380012486705</v>
+        <v>145.83190221927211</v>
       </c>
       <c r="G23">
         <f>[1]CF_Aggressive!M35</f>
-        <v>21887.114593789356</v>
+        <v>218.78925049293005</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4089,19 +4089,19 @@
       </c>
       <c r="D24">
         <f>[1]CF_Aggressive!J36</f>
-        <v>133338551.8980238</v>
+        <v>133273917.23420562</v>
       </c>
       <c r="E24">
         <f>[1]CF_Aggressive!K36</f>
-        <v>147374263.26587003</v>
+        <v>147309628.60205185</v>
       </c>
       <c r="F24">
         <f>[1]CF_Aggressive!L36</f>
-        <v>17327.280480486115</v>
+        <v>173.19090806523556</v>
       </c>
       <c r="G24">
         <f>[1]CF_Aggressive!M36</f>
-        <v>19151.21412582108</v>
+        <v>191.43024511041978</v>
       </c>
     </row>
   </sheetData>
